--- a/output/2023-10_Audit100_Pathologist-H.xlsx
+++ b/output/2023-10_Audit100_Pathologist-H.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="108">
   <si>
     <t xml:space="preserve">accession</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">code</t>
   </si>
   <si>
-    <t xml:space="preserve">12830223</t>
+    <t xml:space="preserve">12830102</t>
   </si>
   <si>
     <t xml:space="preserve">Bee</t>
@@ -49,99 +49,6 @@
     <t xml:space="preserve">H</t>
   </si>
   <si>
-    <t xml:space="preserve">12829924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12828779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830102</t>
-  </si>
-  <si>
     <t xml:space="preserve">12830110</t>
   </si>
   <si>
@@ -194,6 +101,249 @@
   </si>
   <si>
     <t xml:space="preserve">12829954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12829939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12829942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12829342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12830522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12830271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12830069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12830963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12829105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12829919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833258</t>
   </si>
 </sst>
 </file>
@@ -311,7 +461,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205.3472222222</v>
+        <v>45205.5798611111</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -359,13 +509,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205.3472222222</v>
+        <v>45205.5798611111</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>7</v>
@@ -376,13 +526,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205.3472222222</v>
+        <v>45205.5798611111</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>7</v>
@@ -393,13 +543,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205.3520833333</v>
+        <v>45205.5798611111</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
@@ -410,13 +560,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205.3520833333</v>
+        <v>45205.5868055555</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>7</v>
@@ -427,13 +577,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205.3520833333</v>
+        <v>45205.5868055555</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>7</v>
@@ -444,13 +594,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205.3659722222</v>
+        <v>45205.5868055555</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>7</v>
@@ -461,13 +611,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205.3659722222</v>
+        <v>45205.5868055555</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>7</v>
@@ -478,13 +628,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205.3659722222</v>
+        <v>45205.59375</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>7</v>
@@ -495,13 +645,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205.3701388889</v>
+        <v>45205.59375</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>7</v>
@@ -512,13 +662,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205.3701388889</v>
+        <v>45205.59375</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>7</v>
@@ -529,13 +679,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205.3701388889</v>
+        <v>45205.59375</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>7</v>
@@ -546,13 +696,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205.4145833333</v>
+        <v>45205.59375</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>7</v>
@@ -563,13 +713,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205.4145833333</v>
+        <v>45205.59375</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>7</v>
@@ -580,13 +730,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205.4145833333</v>
+        <v>45205.6</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>7</v>
@@ -597,13 +747,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205.4145833333</v>
+        <v>45205.6055555556</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>7</v>
@@ -614,13 +764,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205.4145833333</v>
+        <v>45205.6055555556</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>7</v>
@@ -631,13 +781,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205.4152777778</v>
+        <v>45205.60625</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>7</v>
@@ -648,13 +798,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205.4215277778</v>
+        <v>45205.6131944445</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>7</v>
@@ -665,13 +815,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205.4215277778</v>
+        <v>45208.3194444445</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>7</v>
@@ -682,13 +832,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205.4256944445</v>
+        <v>45208.3229166667</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>
@@ -699,13 +849,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205.4256944445</v>
+        <v>45208.3270833333</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>7</v>
@@ -716,13 +866,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205.4256944445</v>
+        <v>45208.3597222222</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>7</v>
@@ -733,13 +883,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205.4256944445</v>
+        <v>45208.3604166667</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>7</v>
@@ -750,13 +900,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205.4256944445</v>
+        <v>45208.3638888889</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>7</v>
@@ -767,13 +917,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205.4305555556</v>
+        <v>45208.3638888889</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>7</v>
@@ -784,13 +934,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205.4305555556</v>
+        <v>45208.5340277778</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>7</v>
@@ -801,13 +951,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205.4305555556</v>
+        <v>45208.5416666667</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>7</v>
@@ -818,13 +968,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205.4305555556</v>
+        <v>45208.6388888889</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>7</v>
@@ -835,13 +985,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205.4354166667</v>
+        <v>45208.6388888889</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>7</v>
@@ -852,13 +1002,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205.4354166667</v>
+        <v>45209.3236111111</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>7</v>
@@ -869,13 +1019,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205.4354166667</v>
+        <v>45209.43125</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>7</v>
@@ -886,13 +1036,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205.4409722222</v>
+        <v>45209.4458333333</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>7</v>
@@ -903,13 +1053,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205.4743055556</v>
+        <v>45209.4604166667</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>7</v>
@@ -920,13 +1070,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205.4743055556</v>
+        <v>45209.46875</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>7</v>
@@ -937,13 +1087,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205.4743055556</v>
+        <v>45209.5590277778</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>7</v>
@@ -954,13 +1104,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205.4743055556</v>
+        <v>45209.5590277778</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>7</v>
@@ -971,13 +1121,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205.4743055556</v>
+        <v>45209.7125</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>7</v>
@@ -988,13 +1138,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205.4743055556</v>
+        <v>45210.3131944445</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>7</v>
@@ -1005,13 +1155,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205.5194444444</v>
+        <v>45210.3131944445</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>7</v>
@@ -1022,13 +1172,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205.5194444444</v>
+        <v>45210.3277777778</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>7</v>
@@ -1039,13 +1189,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205.5256944444</v>
+        <v>45210.3277777778</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>7</v>
@@ -1056,13 +1206,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205.5263888889</v>
+        <v>45210.3277777778</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>7</v>
@@ -1073,13 +1223,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205.5263888889</v>
+        <v>45210.40625</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>7</v>
@@ -1090,13 +1240,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205.5375</v>
+        <v>45210.4333333333</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>7</v>
@@ -1107,13 +1257,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205.5375</v>
+        <v>45210.4333333333</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>7</v>
@@ -1124,13 +1274,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205.5375</v>
+        <v>45210.4402777778</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>7</v>
@@ -1141,13 +1291,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205.5375</v>
+        <v>45210.4590277778</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>7</v>
@@ -1158,13 +1308,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205.5375</v>
+        <v>45210.4590277778</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>7</v>
@@ -1175,13 +1325,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205.5375</v>
+        <v>45210.4923611111</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>7</v>
@@ -1192,13 +1342,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205.54375</v>
+        <v>45210.4965277778</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>7</v>
@@ -1209,13 +1359,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205.54375</v>
+        <v>45210.4965277778</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>7</v>
@@ -1226,13 +1376,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205.54375</v>
+        <v>45210.5</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>7</v>
@@ -1243,13 +1393,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205.5493055556</v>
+        <v>45210.5</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>7</v>
@@ -1260,13 +1410,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205.5493055556</v>
+        <v>45210.5041666667</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>7</v>
@@ -1277,13 +1427,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205.5493055556</v>
+        <v>45210.5041666667</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>7</v>
@@ -1294,13 +1444,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205.5493055556</v>
+        <v>45210.5041666667</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>7</v>
@@ -1311,13 +1461,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205.5493055556</v>
+        <v>45210.5041666667</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>7</v>
@@ -1328,13 +1478,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205.5555555555</v>
+        <v>45210.5041666667</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>7</v>
@@ -1345,13 +1495,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205.5555555555</v>
+        <v>45210.5083333333</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>7</v>
@@ -1362,13 +1512,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205.5555555555</v>
+        <v>45210.5125</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>7</v>
@@ -1379,13 +1529,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205.5611111111</v>
+        <v>45210.5159722222</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>7</v>
@@ -1396,13 +1546,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205.5673611111</v>
+        <v>45210.5166666667</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>7</v>
@@ -1413,13 +1563,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205.5673611111</v>
+        <v>45210.5201388889</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>7</v>
@@ -1430,13 +1580,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205.5736111111</v>
+        <v>45210.5201388889</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>7</v>
@@ -1447,13 +1597,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205.5736111111</v>
+        <v>45210.5270833333</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>7</v>
@@ -1464,13 +1614,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205.5736111111</v>
+        <v>45210.53125</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>7</v>
@@ -1481,13 +1631,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205.5736111111</v>
+        <v>45210.5347222222</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>7</v>
@@ -1498,13 +1648,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205.5798611111</v>
+        <v>45210.5388888889</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>7</v>
@@ -1515,13 +1665,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205.5798611111</v>
+        <v>45210.5465277778</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>7</v>
@@ -1532,13 +1682,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205.5798611111</v>
+        <v>45210.5861111111</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>7</v>
@@ -1549,13 +1699,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205.5798611111</v>
+        <v>45210.5861111111</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>7</v>
@@ -1566,13 +1716,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205.5798611111</v>
+        <v>45210.5861111111</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>7</v>
@@ -1583,13 +1733,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205.5868055555</v>
+        <v>45210.5902777778</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>7</v>
@@ -1600,13 +1750,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205.5868055555</v>
+        <v>45210.5902777778</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>7</v>
@@ -1617,13 +1767,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205.5868055555</v>
+        <v>45210.5902777778</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>7</v>
@@ -1634,13 +1784,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205.5868055555</v>
+        <v>45210.5944444445</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>7</v>
@@ -1651,13 +1801,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205.5868055555</v>
+        <v>45210.5944444445</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>7</v>
@@ -1668,13 +1818,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205.5868055555</v>
+        <v>45210.5944444445</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>7</v>
@@ -1685,13 +1835,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205.5868055555</v>
+        <v>45210.5986111111</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>7</v>
@@ -1702,13 +1852,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205.59375</v>
+        <v>45210.5986111111</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>7</v>
@@ -1719,13 +1869,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205.59375</v>
+        <v>45210.6027777778</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>7</v>
@@ -1736,13 +1886,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205.59375</v>
+        <v>45210.60625</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>7</v>
@@ -1753,13 +1903,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205.59375</v>
+        <v>45210.60625</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>7</v>
@@ -1770,13 +1920,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205.59375</v>
+        <v>45210.6104166667</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>7</v>
@@ -1787,13 +1937,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205.59375</v>
+        <v>45210.6104166667</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>7</v>
@@ -1804,13 +1954,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205.6</v>
+        <v>45210.6104166667</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>7</v>
@@ -1821,13 +1971,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205.6</v>
+        <v>45210.6104166667</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>7</v>
@@ -1838,13 +1988,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205.6</v>
+        <v>45210.6145833333</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>7</v>
@@ -1855,13 +2005,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205.6055555556</v>
+        <v>45210.6145833333</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>7</v>
@@ -1872,13 +2022,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205.6055555556</v>
+        <v>45210.6145833333</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>7</v>
@@ -1889,13 +2039,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205.6055555556</v>
+        <v>45210.61875</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>7</v>
@@ -1906,13 +2056,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205.6055555556</v>
+        <v>45210.61875</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>7</v>
@@ -1923,13 +2073,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205.6055555556</v>
+        <v>45210.6229166667</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>7</v>
@@ -1940,13 +2090,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205.6055555556</v>
+        <v>45210.6270833333</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>7</v>
@@ -1957,13 +2107,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205.60625</v>
+        <v>45210.6305555556</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>7</v>
@@ -1974,13 +2124,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205.60625</v>
+        <v>45210.6305555556</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>7</v>
@@ -1991,13 +2141,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205.6131944445</v>
+        <v>45210.6305555556</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>7</v>
@@ -2008,13 +2158,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205.6131944445</v>
+        <v>45210.6347222222</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>7</v>
@@ -2025,13 +2175,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205.6131944445</v>
+        <v>45210.6388888889</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>7</v>

--- a/output/2023-10_Audit100_Pathologist-H.xlsx
+++ b/output/2023-10_Audit100_Pathologist-H.xlsx
@@ -2199,4 +2199,281 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055E7AF632A704D4CBB1BD9FA14B19970" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a142d422042ab65c5cf1bdc7db96e15">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" xmlns:ns3="852f286e-3e14-48be-b416-81218d12f978" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c40a8bb7e01840c9a3629736cac3e4c1" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d"/>
+    <xsd:import namespace="852f286e-3e14-48be-b416-81218d12f978"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c6d7f816-bc26-4675-b66e-019c6d6df9c2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="852f286e-3e14-48be-b416-81218d12f978" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{470e1751-435f-4e7f-a343-fe3c661a44ef}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="852f286e-3e14-48be-b416-81218d12f978">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{060BFDC3-F0EA-45BA-9B5E-A49A1D112FC8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55DC6D65-B031-48A1-BE2C-A3BD7A0BAB9D}"/>
 </file>